--- a/Estimativas.xlsx
+++ b/Estimativas.xlsx
@@ -46,10 +46,10 @@
     <t xml:space="preserve">Desenvolvimento Etapa 1</t>
   </si>
   <si>
+    <t xml:space="preserve">Desenvolvimento Etapa 2</t>
+  </si>
+  <si>
     <t xml:space="preserve">14 dias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desenvolvimento Etapa 2</t>
   </si>
   <si>
     <t xml:space="preserve">Testes e soluções de bugs</t>
@@ -192,12 +192,12 @@
   <dimension ref="B2:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.69"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.36"/>
@@ -238,10 +238,10 @@
         <v>7</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>43522</v>
+        <v>43572</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>6</v>
@@ -249,10 +249,10 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>43522</v>
@@ -266,7 +266,7 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>43522</v>
@@ -280,7 +280,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>43522</v>
